--- a/Model_Large_OneChip/workload/resnet18.xlsx
+++ b/Model_Large_OneChip/workload/resnet18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosho\OneDrive\Desktop\proj\Model_Large_OneChip\workload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BEB04-3D42-4B76-BC6A-5BFA660FE189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED077A38-AF82-4098-9818-CC79BEC814F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="36">
   <si>
     <t>pooling</t>
   </si>
@@ -90,73 +90,49 @@
     <t>add</t>
   </si>
   <si>
-    <t>224x224x3xba</t>
-  </si>
-  <si>
-    <t>112x112x64xba</t>
-  </si>
-  <si>
-    <t>112x112xba</t>
-  </si>
-  <si>
-    <t>1xba</t>
-  </si>
-  <si>
-    <t>3x3xba</t>
-  </si>
-  <si>
-    <t>56x56x64xba</t>
-  </si>
-  <si>
     <t>56x56x64</t>
   </si>
   <si>
     <t>3x3x64</t>
   </si>
   <si>
-    <t>56x56xba</t>
-  </si>
-  <si>
-    <t>28x28x128xba</t>
-  </si>
-  <si>
-    <t>28x28xba</t>
-  </si>
-  <si>
     <t>28x28x128</t>
   </si>
   <si>
     <t>3x3x128</t>
   </si>
   <si>
-    <t>14x14x256xba</t>
-  </si>
-  <si>
-    <t>14x14xba</t>
-  </si>
-  <si>
     <t>14x14x256</t>
   </si>
   <si>
     <t>3x3x256</t>
   </si>
   <si>
-    <t>7x7x512xba</t>
-  </si>
-  <si>
     <t>3x3x512</t>
   </si>
   <si>
-    <t>7x7xba</t>
-  </si>
-  <si>
     <t>7x7x512</t>
   </si>
   <si>
-    <t>512xba</t>
-  </si>
-  <si>
-    <t>1000xba</t>
+    <t>112x112</t>
+  </si>
+  <si>
+    <t>224x224x3</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>56x56</t>
+  </si>
+  <si>
+    <t>28x28</t>
+  </si>
+  <si>
+    <t>14x14</t>
+  </si>
+  <si>
+    <t>7x7</t>
   </si>
 </sst>
 </file>
@@ -587,7 +563,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,13 +624,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>10</v>
@@ -676,14 +652,14 @@
       <c r="E3" s="5">
         <v>-1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
+      <c r="F3" s="5">
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
@@ -700,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>-1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
@@ -732,16 +708,16 @@
         <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -758,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>-1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
+      <c r="F6" s="5">
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>13</v>
@@ -790,16 +766,16 @@
         <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>13</v>
@@ -816,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5">
         <v>-1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
+      <c r="F8" s="5">
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
@@ -845,19 +821,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5">
         <v>-1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
+      <c r="F9" s="5">
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
@@ -877,16 +853,16 @@
         <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>13</v>
@@ -903,19 +879,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
+      <c r="F11" s="5">
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
@@ -935,16 +911,16 @@
         <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>13</v>
@@ -961,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5">
         <v>-1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
+      <c r="F13" s="5">
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>13</v>
@@ -990,19 +966,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5">
         <v>-1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
+      <c r="F14" s="5">
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>13</v>
@@ -1022,16 +998,16 @@
         <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>13</v>
@@ -1048,19 +1024,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5">
         <v>-1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
+      <c r="F16" s="5">
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>13</v>
@@ -1080,16 +1056,16 @@
         <v>128</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>13</v>
@@ -1106,19 +1082,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E18" s="5">
         <v>-1</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
+      <c r="F18" s="5">
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
@@ -1138,16 +1114,16 @@
         <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>13</v>
@@ -1164,19 +1140,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E20" s="5">
         <v>-1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
+      <c r="F20" s="5">
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>13</v>
@@ -1196,16 +1172,16 @@
         <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>13</v>
@@ -1222,19 +1198,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E22" s="5">
         <v>-1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>24</v>
+      <c r="F22" s="5">
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>13</v>
@@ -1251,19 +1227,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E23" s="8">
         <v>-1</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>24</v>
+      <c r="F23" s="8">
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>13</v>
@@ -1283,16 +1259,16 @@
         <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
@@ -1309,19 +1285,19 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
         <v>-1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
+      <c r="F25" s="5">
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>13</v>
@@ -1341,16 +1317,16 @@
         <v>256</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>13</v>
@@ -1367,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
         <v>-1</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>24</v>
+      <c r="F27" s="5">
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>13</v>
@@ -1399,16 +1375,16 @@
         <v>256</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>13</v>
@@ -1425,19 +1401,19 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
         <v>-1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
+      <c r="F29" s="5">
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>13</v>
@@ -1457,16 +1433,16 @@
         <v>256</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>13</v>
@@ -1483,19 +1459,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5">
         <v>-1</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>24</v>
+      <c r="F31" s="5">
+        <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>13</v>
@@ -1512,19 +1488,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
         <v>-1</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>24</v>
+      <c r="F32" s="5">
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>13</v>
@@ -1544,16 +1520,16 @@
         <v>512</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>13</v>
@@ -1570,19 +1546,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E34" s="5">
         <v>-1</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>24</v>
+      <c r="F34" s="5">
+        <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>13</v>
@@ -1602,16 +1578,16 @@
         <v>512</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>13</v>
@@ -1628,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E36" s="5">
         <v>-1</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>24</v>
+      <c r="F36" s="5">
+        <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>13</v>
@@ -1660,16 +1636,16 @@
         <v>512</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>13</v>
@@ -1686,19 +1662,19 @@
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E38" s="5">
         <v>-1</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>24</v>
+      <c r="F38" s="5">
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>13</v>
@@ -1718,16 +1694,16 @@
         <v>512</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>13</v>
@@ -1744,19 +1720,19 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E40" s="5">
         <v>-1</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>24</v>
+      <c r="F40" s="5">
+        <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>13</v>
@@ -1773,19 +1749,19 @@
         <v>1</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E41" s="8">
         <v>-1</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>24</v>
+      <c r="F41" s="8">
+        <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>13</v>
@@ -1808,13 +1784,13 @@
         <v>-1</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="H42" s="5">
+        <v>512</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>13</v>
@@ -1836,14 +1812,14 @@
       <c r="E43" s="5">
         <v>512</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>43</v>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>512</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1000</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>13</v>
@@ -1865,14 +1841,14 @@
       <c r="E44" s="5">
         <v>-1</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>43</v>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1000</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>13</v>
